--- a/Data/EC/NIT-9007405548.xlsx
+++ b/Data/EC/NIT-9007405548.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4C23DEA-98F4-4177-9387-FC3AB75D129E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38FEBC1F-BAA5-47BB-AA47-9E09C27EE665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B6E0993E-AEDB-4318-BD90-DD3DC0F831E1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5DDD28F0-6F49-4041-8D32-2FDB004A5F0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,15 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73573860</t>
+  </si>
+  <si>
+    <t>NORBEY VILLADA VILLADA PAJARO</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
     <t>73162788</t>
   </si>
   <si>
@@ -74,22 +83,43 @@
     <t>1806</t>
   </si>
   <si>
+    <t>9095273</t>
+  </si>
+  <si>
+    <t>JORGE ELIECER ROQUE JIMENEZ</t>
+  </si>
+  <si>
+    <t>73146705</t>
+  </si>
+  <si>
+    <t>BLAS ALBERTO TORRES MAZA</t>
+  </si>
+  <si>
+    <t>73156798</t>
+  </si>
+  <si>
+    <t>GILBERTO JARABA NUÑEZ</t>
+  </si>
+  <si>
     <t>73192056</t>
   </si>
   <si>
     <t>JESUS MARIA CANTILLO ALTAMIRANDA</t>
   </si>
   <si>
-    <t>9095273</t>
-  </si>
-  <si>
-    <t>JORGE ELIECER ROQUE JIMENEZ</t>
-  </si>
-  <si>
-    <t>73146705</t>
-  </si>
-  <si>
-    <t>BLAS ALBERTO TORRES MAZA</t>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1137195709</t>
+  </si>
+  <si>
+    <t>JOINER RUIZ BARON</t>
+  </si>
+  <si>
+    <t>1002202212</t>
+  </si>
+  <si>
+    <t>ANTONIO JOSE ZABALETA BARBOZA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -503,7 +533,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1C2F016-005D-2B4E-4403-FCBFC114AF5B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BC47573-ECC9-B04B-5DB1-4AAF960DE5AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -854,8 +884,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B0DF80-507B-4487-9B1C-3300601AB370}">
-  <dimension ref="B2:J25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE9DAF5-C8DD-4D4C-9032-46F342967439}">
+  <dimension ref="B2:J30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -879,7 +909,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -924,7 +954,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -956,12 +986,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>237216</v>
+        <v>393461</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -972,17 +1002,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C13" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F13" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1009,13 +1039,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1032,10 +1062,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>67776</v>
+        <v>31249</v>
       </c>
       <c r="G16" s="18">
-        <v>1694400</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1052,7 +1082,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
         <v>67776</v>
@@ -1069,13 +1099,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F18" s="18">
         <v>50832</v>
@@ -1088,56 +1118,171 @@
       <c r="J18" s="20"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="23" t="s">
+      <c r="C19" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="D19" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="18">
+        <v>50832</v>
+      </c>
+      <c r="G19" s="18">
+        <v>1270800</v>
+      </c>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="20"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B20" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="24">
-        <v>50832</v>
-      </c>
-      <c r="G19" s="24">
-        <v>1270800</v>
-      </c>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="26"/>
+      <c r="F20" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G20" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="20"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G21" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="20"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B22" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="18">
+        <v>67776</v>
+      </c>
+      <c r="G22" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="20"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B23" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G23" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="20"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="H24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B25" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="32"/>
-      <c r="H25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
+      <c r="E24" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="24">
+        <v>31249</v>
+      </c>
+      <c r="G24" s="24">
+        <v>781242</v>
+      </c>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="26"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B29" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="32"/>
+      <c r="H29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B30" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="32"/>
+      <c r="H30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H29:J29"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9007405548.xlsx
+++ b/Data/EC/NIT-9007405548.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38FEBC1F-BAA5-47BB-AA47-9E09C27EE665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CC934FE-50E2-4E41-B838-B9FCEBF974B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5DDD28F0-6F49-4041-8D32-2FDB004A5F0A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2F95D754-1E7A-4499-BD42-1D0F03456F5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,15 +65,6 @@
     <t>CC</t>
   </si>
   <si>
-    <t>73573860</t>
-  </si>
-  <si>
-    <t>NORBEY VILLADA VILLADA PAJARO</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
     <t>73162788</t>
   </si>
   <si>
@@ -95,31 +86,10 @@
     <t>BLAS ALBERTO TORRES MAZA</t>
   </si>
   <si>
-    <t>73156798</t>
-  </si>
-  <si>
-    <t>GILBERTO JARABA NUÑEZ</t>
-  </si>
-  <si>
     <t>73192056</t>
   </si>
   <si>
     <t>JESUS MARIA CANTILLO ALTAMIRANDA</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1137195709</t>
-  </si>
-  <si>
-    <t>JOINER RUIZ BARON</t>
-  </si>
-  <si>
-    <t>1002202212</t>
-  </si>
-  <si>
-    <t>ANTONIO JOSE ZABALETA BARBOZA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -218,22 +188,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -433,23 +403,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -477,10 +447,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -533,7 +503,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BC47573-ECC9-B04B-5DB1-4AAF960DE5AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DACA84F1-E3A6-93FD-44E6-620AE52E560F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -884,8 +854,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE9DAF5-C8DD-4D4C-9032-46F342967439}">
-  <dimension ref="B2:J30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064F68EB-6FD8-4C9E-9ECE-A2E31A834E00}">
+  <dimension ref="B2:J25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -909,7 +879,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -954,7 +924,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -986,12 +956,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>393461</v>
+        <v>237216</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1002,17 +972,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C13" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F13" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1039,13 +1009,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1062,7 +1032,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>31249</v>
+        <v>67776</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1082,13 +1052,13 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>67776</v>
+        <v>50832</v>
       </c>
       <c r="G17" s="18">
-        <v>1694400</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1099,190 +1069,75 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>16</v>
-      </c>
       <c r="E18" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
         <v>50832</v>
       </c>
       <c r="G18" s="18">
-        <v>1270800</v>
+        <v>1200000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="18">
-        <v>50832</v>
-      </c>
-      <c r="G19" s="18">
-        <v>1270800</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B20" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="16" t="s">
+      <c r="E19" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G20" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B21" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G21" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B22" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="18">
+      <c r="F19" s="24">
         <v>67776</v>
       </c>
-      <c r="G22" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B23" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G23" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="G19" s="24">
+        <v>828116</v>
+      </c>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="26"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B24" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="22" t="s">
+      <c r="B24" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="32"/>
+      <c r="H24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B25" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="24">
-        <v>31249</v>
-      </c>
-      <c r="G24" s="24">
-        <v>781242</v>
-      </c>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="26"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="32"/>
-      <c r="H29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="32"/>
-      <c r="H30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+      <c r="C25" s="32"/>
+      <c r="H25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H24:J24"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
